--- a/Testdata/TC_143.xlsx
+++ b/Testdata/TC_143.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>WykAAB+LCAAAAAAAAAPtWltvG8cV/isLAgFaINTukpIlEqMNeJFUoqQkiLRl5yVY7o7IrZa77M6sJL45L7HTOg1S12nTxkmDppcUsZvAvSSV0x8TmJL85L/QMzN75cXmGvZDABsCvXNuc+bMmXO+vaA3Tga2dIQ9YrnOek5dUnISdgzXtJzees6nB3n1Uu4NDW2cGNje1T19gCkIS6DlkPIJsdZzfUqHZVk+Pj5eOi4uuV5PLiiKKl9tNdtGHw/0vOUQqjsGzkVa5rO1chqqmYMWprqpU11oruca7cZSDVtGHWgt3dF72Fuq+sRyMCEbDrWohQnT9LBOca3euiIWphWWLi2pSJ6ix5JV37JNIZeSFPRADqbFHWuAtYKiruWVUl4pdlS1rKyW1eKSslZ6M1SMBFFTJ7SNvSPL4IQ21QdDrq6UlKKqKqtqEckzhcBWHAAN7djmHj6yCDZr2LZJpojIwQZWDAqrzhZMBckJ3cDQ87uw5enDfseiNs7mxmvSEHtSy3Vo/3UJUmU5Dz8r66oS+hcb1tCm62EDYvpcbm7j4x0vCHVn2ARup295dFTXR5ltXSbY2xmywGVT1VAdVlqxsUcvD2H/sQnpAQyNej5G8hxmrFS3iAHXluNjUzvQbZJUSjHRvusdkqFu4G042zKzcezYrm5CElKLUMuIJ51ioF3PhW1hLldd29wEq4HwDEZkueFAiNm0Vdc9jL2bxUR8V/n+wp4OdBqKT9FRu+8e7zj2qO13ieFZXWzWq6H0TB5ihzTQrvmEugPwIiYhQUtQTFNuteQR/IOjOclEdWxYA93etSGURINDnSagik/dA4vWXNsfOCT0bIKK9mFdHXwSrTMaox3YYoeF3nUaTigvgj2TlVbYc4+jOacZPBQJcoUY4aZPMyaF60ALN3Gaw/eFrXLTsqFzJHckQU3nRruPMZ2ZGIKDWJHcZL1Iq462/UEXDlkXTtoRn5UgOeYjyFbIePBLU6C/5PlfR1HK/A/8iNhowzHny4VMBNMl5tJKwJsgIViTXbV15xCo+xbtb1fCtczgIBGBufLTPATnd2jrI06OopSkoYZj2L6JRVloOAc8RZlvYlPnstEUqQknXUO6M+qMhlCxiVWmcLGegx5eJtQDlJDTDNd3qDdi9QPJgeizdIjfdfgEur2wzoGHf+4DOBlt+o5Rc83FZzNFdC47Fl3cQ9f3RFFcXIVHj9VHn9QxqzS89C+sb2RZE/EyiQ8cPHAdy1g82hBk5r35HAsh4alaWAOL87WwvA3dXTQ/dtYXVvMAWUK7yzRNhRDXsHiyBsfDTOjLc45MHR/ovg2ojkKj7UW1d5KMKuRwUiZJQpc9O6yAGsPMBECzYQ6WDIAQDBguGe6AEWTAqvttJCflGQ4y8IbTa+pOzwekEdWVSXpUf1mX7Hi6Q9hyImAxUYpnC6GwTgnAo4nitePzRBDFywUukifkUAcPhq6n2y0IjLUZpF2AmgCQtHTaD0bQ22xshEGWY9VIK+1Z6PizxHiTEstgBz4okxNELsTWIuB5LBPTEFtlC46lXdNtq+uJqhq28lk82LAYIob1ly0uI1wM9wBu0aD7/hSPGG6PBwGdp6waMkQCs0KqtfeW1wrLpbUVQDZsjPiK63joEotKe7DAslTrWwDaa6AIkZSqsIdlqXLUK0ublgO3dxYQ2yNC8aAsFRWJutJaSWKYGRokD1/Qol6o5aRNtBn2B76EOqwlTUkLAE7pgXl7WjDixApaXbfsUUJORKjpGiA2vve7sy//N775xfmvbjx5+Puzj/4L14++uTf+/P7j2/+++OwWEMffPhjfZdzHNz64+OS9R9/dPn9wCsOicnHjwVpp/PkXIkzCIuroXRtzpzvVtTWluAw5HJEQ2ziZg2/TNyinXbvGMXc0RsHtJB/UNhq1rWaV16qIGKqLdiWzO9WR68fDtlgpn4inixxmmRDROmHtC8YpbqL9aezO8QinpZP8eYoiFuenfz0/vTdXOwhYjOPUUmklr8Bf4ekwD+7Bl5mcWpoF85qp/hIJF5JGJ2TQnmguUZwaplZU4TZ/ZVVRoz5hRgdhltAkK7DU0XvyhJ4g1QT0ilIgOQ6Z/HB0MKERWxyXxEAE8exfv7z4x52UVBDdgJK2As5xiMQmk8MBN72915HaO5f3ahtSZ6PN8iTmJeSE8acIB7NHhy6ZNPxAvi7lViQ3xt65xAlNZdgsqrCexc6kP1ue6w9FsUkoxNQZknHVmaUxo/JwnqiZEyUo5syQDnb0t3+epRCsox6j4uTjlSgLOQNNswU9IRRM9vFNUQNfS1kIJoseM0BWw9lJDqMkhwIXdK4JCtpv84AeKm8lOlVAZLdku67lUKItr66o/H4sGCNQVpk9/j9qDKB9ctM8bECfoKCf6GTjhAYHWdtGcpoAng516NxufB8bEUTNjsP7+O4nZ3/459mHX13c+Pv4F38b3/rw/PTTi/ufiVN2duers/fuB1V9svBzX9jdsQCUEn/iYkjs9EkMB0jfX78tOS6VAL5IPq9A31//KGGMOcqBTmwZ4GHkSNqFKdGkMtOTEq5EPqT0IhUBJmqsZRUjiaBpuUPLiCd5M89MAcaVOONHjU7eJ1hyAZn9GFaSFo6VF9ULVEQL3V1VCmoh4Apv2BK6OkmEfst2uwA0QgZ/mDEhktJ6ukIsy+fbau5UK81YRDix45nYY2koLlAIT1kLaZBwFKZaggJcAJGGb7PnT1Ni06zIcqKYycGDnIOKyR72z37skZJANd/zBEhygjcGbX8IwDp6VjNfgD8JTYDpbQF8k/A6HjfqaT6ME1zofGk2I3A+L0wBSxSpBmEPjQQ23maxiYfASz09hXgEbwUEtDqyYE9kVno2PM/1ZtafmBOKtQCWQ0mR45BHMnxTBYQ3480KCWHNezFQfkVZKaSg/P5uoyztehbUsZFU8aCc2JgAwHZdE36vlKUrGPD2loexI+1ifSZoz27jKfB8/9KC8HxKcBY838f4cC4+P3v32/H7Hzw6/c/ZHx+e3boBde/Jw5uwmCcP3wUE/uib04u/vD2+88749tsMn//pU3GxeQV+Ln7z5cX7HzPy3V9ffP3OK4z+YjA6e3WTV5VnPooF2F1gNUldfskYXS0Wn43RA6FXGH1RjC5OpdTFcF4d1rJ1KrUhNzxTH2VH6tmtzcfr+5nx+kyNp+L1qZq0AGB/fP3rBQH7xCvQacg+ITAHtM83kx23q/Nxu/pWoi1N43Z1tfAKtr+C7T8o2K6+gu0/GNg+UX5eCmyX42f3UWV069jGNNuXLnKs3XKPnlsXNj+raoPs2GYQzGyvH6KwxAaSn/uwRHkZX/uIBKx4HgAu9mFA5s9zwhdae7rTy+ihWB5XZG+GYPbg+5lNyyP0KutSwZWgXIso1wRyvaoVBDy9KsbXNFUtLAsSiMhJ+3LK0fBEU/Eplms3rYGV8YWREp76tBGI5nAowF0jW/6wjrONTwB6JixArez+DLqJeMOaxZpIYyixkT77qoFYvT7N6thqV8cm7ip5o4sL+WVTWcuXMC7mVRV+daPAMot9ExEYh3pi4eOMk8jhhsWfSGr/BwGnKBVbKQAA</t>
+          <t>ICsAAB+LCAAAAAAAAAPtWltvG8cV/isLAgFaoNTukpIoEqMNeJFUoqQkiLRl5yVY7g6lqZa77M6uJL4lL7HTOg1c12nTxkmDpm1SxG6K9JJUTn9MYMryk/9Cz8zslRebqzpAC9iQJc65zcyZc/l2lujV04ElHWOXEsdez6lLSk7CtuGYxD5Yz/leP6+u5l7V0Mapga1d3dUH2ANhCbRsWjmlZD136HnDiiyfnJwsnRSXHPdALiiKKl9rtzrGIR7oeWJTT7cNnIu0zOdr5TRUNwdt7Omm7ulCcz3X7DSX6pgYDaC1dVs/wO5SzafExpRu2B7xCKZM08W6h+uN9lWxMa2wtLqkInmKHkvWfGKZQi4lKeiBHEyLu2SAtYJSUPLKWr6gdJW1yspqRVldWimVXgsVI0HU0qnXwe4xMTih4+mDIVdX1tj/lVVlFckzhcBW7AAN7VjmHj4mFJt1bFk0k0fk4ACrhge7zuZMBckJ3cDQ5Zew5erDwy7xLJxVfdNxsQGOutTc2/hkxw381x22gNs9JK43auijzLauUOzuDJk3sqlqqOHYXtXCrndlCIeKTThzYGie62Mkz2HGSg1CDfhMbB+bWl+3aFIpxUT7jntEh7qBtyFhZWbjxLYc3YTI8gj1iBFPOsVAu64zBIswec2xzE2wGgjPYESWmza4mE1bc5yjeHWzmIjHAI8GONOB7oXiU3TUOXROdmxr1PF71HBJD5uNWig9k4dY5gXadZ96zgBWEZOQoCUopim32/II/kG+TTJRAxtkoFu7FriSakWwlSKgqu85feLVHcsf2DRc2QQV7cO+uvg02mc0RjtwxDZzvWM37VBeOHsmK62w55xEc04zuCsS5Co1wkOfZkwKN4AWHuI0h58L2+UmsaAdJE8kQU3HRucQY29mYAgOYpVvkzUYrTba9gc9SLIeZNoxn5UiOeYjiFaIeFiXpkDTyPOfrqJU+A+sI2KjDducLxcyEUyXmEsrA2+ChGBPVs3S7SOg7hPvcLsa7mUGBwkPzJWf5iHI36Gljzg58lKShpq2YfkmFmWhafd5iLK1iUOdy0ZTpBZkuoZ0e9QdDaEMU1Lx4MN6DhpzhXoutP6cZji+7bkjVj+QHIg+T4f6PZtPoFsL6/Rd/BMfEMdo07eNumMuPpspvHPFJt7iK3R8VxTFxVW491h99GkDs0rDS//C+kaWPVE3k/jAxgPHJsbi3gYns9Wbl9gIDbNqYQ0s8mtheQu6u2h+LNcXVnMBLkK7yzRNlVLHIDxYg/QwE/rynJRp4L7uWwDVPGi0B1HtnSSjKj2alEmS0BXXCiugxoAwBSRsmIMlAyAEQ3tLhjNgBBkA6H4HyUl5hoMMvGEftHT7wAekEdWVSXpUf1mX7Lq6Tdl2ImAxUYpnC6GwTgnAo4nitePzQBDFywEukifkUBcPho6rW21wDNkMwi5ATQBI2rp3GIygt1nYCJ0sx6qRVnpl4cKfJ8ablNgGS/igTE4QuRDbi8DcsUxMQ2yXbUhLq65bpOeKqhq28lk8OLAYIob1l20uI1wMzwCeu6D7/giPGBiPBwGdh6waMkQAs0KqdfaW1wrL5bUVQDZsjPiOG3joUOJJe7DBilQ/JIDE66AInpRqcIYVqXp8UJE2iQ3PbASInRH18KAiFRXJc6S1ssQwMzRI7r6gRb1Qy0mbaDPsD3wLDdhLmpIWAJxyAOatacGIEytoDZ1Yo4Sc8FDLMUBsfP/X55//e3zzs8c/v/H04W/O3/8XfH701f3xJw+e3PnHxce3gDj++svxPcZ9cuP2xYfvPPrmzuMvz2BYVC5ufLlWHn/ymXCTsIi6es/CfNHd2tqaUlyGGI5IiB2czMG36Rsep12/zjF3NEbBMyIf1Dea9a1WjdeqiBiqi3Yls8fPkePHw47YKZ+Ih4scRpkQ0bph7QvGKW6i/WnscfAYp6WT/HmKwhePz/70+Oz+XO3AYTGOU8vllbwCP4Vnw7yCoi4zObU8C+a1Uv0lEi4kjU7IoD3RXCI/NU2tqCplZaWkqFGfMKNEmCU0yQosdfUDeUJPkOoCekUhkByHTJ4cXUy9iC3SJTEQTjz/+88u/nI3JRV4N6CkrcDiOERik8nhgJve3utKnZ0re/UNqbvRYXES8xJywvgzhIPZo6RLBg1PyB9IuRXJibF3LpGhqQibRRXWs9iZXM+W6/hDUWwSCjF1hmRcdWZpzKg8nCdq5kQJijkzpIMT/dUfZikE+2jEqFh7RYLHdakNz+mHURRyBppmC3pCKJjsg5uiBr6SshBMFl0zQFRD7iSHUZBDgQs61wQF7Xe4Q4+U1xOdKiCyR7Jdh9ge1ZZLKyp/HgvGCJRVZo//Rc0BtE9umrsN6BMU9EOdbpx6QSJr20hOE2ClQx06txM/x0YEUbNj9z659+H5b/92/t4XFzf+PP7pp+Nb7z0+++jiwcciy87vfnH+zoOgqk8Wfr4W9nQsAKXEb1wMiWWfxHCA9O0bdyTb8SSAL5LPK9C3b7yfMMYWyoFObBngYbSQ9BKmRJPKTE9KLCVaQ0ovUhFgos5aVjGSCJqWMyRGPMlreWYKMK7EGd9rdvM+xZIDyOz7sJO0cKy8qF6gIlrobkkpqIWAK1bDttDTacL1W5bTA6ARMvhlxoRISuvZCrEsn2+rtVOrtmIRsYgd18QuC0PxATVpCFDD8EpQgAvA0fAtduc0JTbNQuGnRAGTg8ubftVkt/azrzpSEqjuu64ARnZw9d/xhwCmo/uZ+QL89jMBoLcF2E1C6njcbKT5ME5wodul2YzA+bwYBSxRmJqUXRQJPLzNfBMPgZe6MQV/BNf7Ak4dEzgHmZWbDdd13Jk1J+aEYm2A4lBG5NjlkYzMphSw3YwPKySEde7FwPcVZaWQgu/7u82KtOsSqF0jqepCCbEwBVDtOCb8vlqRrmLA2Fsuxra0i/WZQD27jWdA8v3VBSH5lOAsSL6P8dFcTH7+9tfjd28/Ovvn+e8ent+6AbXu6cObsJmnD98G1P3oq7OLP745vvvW+M6bDJP//iPxYfMq/Lr45ecX737AyPd+cfHXt17i8heDywsKA9vKc69fAWoXWE1Sl79jXK4Wi8/H5YHQS1y+KC4XWSn1MOSrzdq07kkdiA3X1EfZ0Xl2a/Mx+n5mjD5T45kYfaomLQDSx7c/XRCkQwot51kerau8UU/B9AmBOUB9vpnsWF2dj9XV1xNtaRqrq6XCS6j+Eqr/X0F19SVU/5+G6hMl5zuB6nJ8Rx9VQ6eBLexl/ppKqN12ji+tC4efVbVJdywzcGa21wyRW2IDye/qsEDJupiq6wJ0Yq/1M3+5pkXso2a23WulkqoXymt9fbnXW+vjcqlklEpl3VB1s7RcMAE8cqPsrRMzMQB8zd7ZZJsEykRaPX6/tqfbBxmtCQdzRfYOCjwVXAfyyh6N0SZxqXeNtcrgk6BcjyjXBXy+phUERr4mxtc1VS0sCxKIyMnp5NS6wxLjiS92OVaLDEjGN1VKWIbSRiAQhkOBMLMeKbS9bXwK+DdhAQp278fQ0sSr3SzWRF5BnY/0Q1sdv5fZnBwq7wKfhdbltDdMwGaX1+ZfkyLWf7EADr4ua6JpU3Jw6GU910K5XMSruJAv9A0jvwyDPDTkXt7U+2UArv2iyap8ZBz6A8EnGSdhXYVQX7ey68kT33PV/gPBp5R9ICsAAA==</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
-    <numFmt numFmtId="166" formatCode="###0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -563,7 +563,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Information</t>
+          <t>Function Description</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -685,7 +685,7 @@
         </is>
       </c>
       <c r="B21" s="2">
-        <v>2.005077569300116</v>
+        <v>2.005077569300117</v>
       </c>
       <c r="C21" s="2">
         <v>1.106537712984745</v>
@@ -10651,4 +10651,48 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>2</InitCol>
+          <EndRow>1125</EndRow>
+          <EndCol>2</EndCol>
+          <Name>Deposit Rate: Chile Central Bank: Avg: Financial System: 30 to 89 Days</Name>
+          <DisplayName>Deposit Rate: Chile Central Bank: Avg: Financial System: 30 to 89 Days</DisplayName>
+          <SeriesId>310905701</SeriesId>
+          <Code>SR4824985</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>3</InitCol>
+          <EndRow>1125</EndRow>
+          <EndCol>3</EndCol>
+          <Name>WPI: Primary Articles: Food: FV: Veg: Green Peas</Name>
+          <DisplayName>WPI: Primary Articles: Food: FV: Veg: Green Peas</DisplayName>
+          <SeriesId>310913301</SeriesId>
+          <Code>SR4825052</Code>
+          <Order>1</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CB6792D-44DB-413E-A1C5-17328A1C0617}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_143.xlsx
+++ b/Testdata/TC_143.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>ICsAAB+LCAAAAAAAAAPtWltvG8cV/isLAgFaoNTukpIoEqMNeJFUoqQkiLRl5yVY7g6lqZa77M6uJL4lL7HTOg1c12nTxkmDpm1SxG6K9JJUTn9MYMryk/9Cz8zslRebqzpAC9iQJc65zcyZc/l2lujV04ElHWOXEsdez6lLSk7CtuGYxD5Yz/leP6+u5l7V0Mapga1d3dUH2ANhCbRsWjmlZD136HnDiiyfnJwsnRSXHPdALiiKKl9rtzrGIR7oeWJTT7cNnIu0zOdr5TRUNwdt7Omm7ulCcz3X7DSX6pgYDaC1dVs/wO5SzafExpRu2B7xCKZM08W6h+uN9lWxMa2wtLqkInmKHkvWfGKZQi4lKeiBHEyLu2SAtYJSUPLKWr6gdJW1yspqRVldWimVXgsVI0HU0qnXwe4xMTih4+mDIVdX1tj/lVVlFckzhcBW7AAN7VjmHj4mFJt1bFk0k0fk4ACrhge7zuZMBckJ3cDQ5Zew5erDwy7xLJxVfdNxsQGOutTc2/hkxw381x22gNs9JK43auijzLauUOzuDJk3sqlqqOHYXtXCrndlCIeKTThzYGie62Mkz2HGSg1CDfhMbB+bWl+3aFIpxUT7jntEh7qBtyFhZWbjxLYc3YTI8gj1iBFPOsVAu64zBIswec2xzE2wGgjPYESWmza4mE1bc5yjeHWzmIjHAI8GONOB7oXiU3TUOXROdmxr1PF71HBJD5uNWig9k4dY5gXadZ96zgBWEZOQoCUopim32/II/kG+TTJRAxtkoFu7FriSakWwlSKgqu85feLVHcsf2DRc2QQV7cO+uvg02mc0RjtwxDZzvWM37VBeOHsmK62w55xEc04zuCsS5Co1wkOfZkwKN4AWHuI0h58L2+UmsaAdJE8kQU3HRucQY29mYAgOYpVvkzUYrTba9gc9SLIeZNoxn5UiOeYjiFaIeFiXpkDTyPOfrqJU+A+sI2KjDducLxcyEUyXmEsrA2+ChGBPVs3S7SOg7hPvcLsa7mUGBwkPzJWf5iHI36Gljzg58lKShpq2YfkmFmWhafd5iLK1iUOdy0ZTpBZkuoZ0e9QdDaEMU1Lx4MN6DhpzhXoutP6cZji+7bkjVj+QHIg+T4f6PZtPoFsL6/Rd/BMfEMdo07eNumMuPpspvHPFJt7iK3R8VxTFxVW491h99GkDs0rDS//C+kaWPVE3k/jAxgPHJsbi3gYns9Wbl9gIDbNqYQ0s8mtheQu6u2h+LNcXVnMBLkK7yzRNlVLHIDxYg/QwE/rynJRp4L7uWwDVPGi0B1HtnSSjKj2alEmS0BXXCiugxoAwBSRsmIMlAyAEQ3tLhjNgBBkA6H4HyUl5hoMMvGEftHT7wAekEdWVSXpUf1mX7Lq6Tdl2ImAxUYpnC6GwTgnAo4nitePzQBDFywEukifkUBcPho6rW21wDNkMwi5ATQBI2rp3GIygt1nYCJ0sx6qRVnpl4cKfJ8ablNgGS/igTE4QuRDbi8DcsUxMQ2yXbUhLq65bpOeKqhq28lk8OLAYIob1l20uI1wMzwCeu6D7/giPGBiPBwGdh6waMkQAs0KqdfaW1wrL5bUVQDZsjPiOG3joUOJJe7DBilQ/JIDE66AInpRqcIYVqXp8UJE2iQ3PbASInRH18KAiFRXJc6S1ssQwMzRI7r6gRb1Qy0mbaDPsD3wLDdhLmpIWAJxyAOatacGIEytoDZ1Yo4Sc8FDLMUBsfP/X55//e3zzs8c/v/H04W/O3/8XfH701f3xJw+e3PnHxce3gDj++svxPcZ9cuP2xYfvPPrmzuMvz2BYVC5ufLlWHn/ymXCTsIi6es/CfNHd2tqaUlyGGI5IiB2czMG36Rsep12/zjF3NEbBMyIf1Dea9a1WjdeqiBiqi3Yls8fPkePHw47YKZ+Ih4scRpkQ0bph7QvGKW6i/WnscfAYp6WT/HmKwhePz/70+Oz+XO3AYTGOU8vllbwCP4Vnw7yCoi4zObU8C+a1Uv0lEi4kjU7IoD3RXCI/NU2tqCplZaWkqFGfMKNEmCU0yQosdfUDeUJPkOoCekUhkByHTJ4cXUy9iC3SJTEQTjz/+88u/nI3JRV4N6CkrcDiOERik8nhgJve3utKnZ0re/UNqbvRYXES8xJywvgzhIPZo6RLBg1PyB9IuRXJibF3LpGhqQibRRXWs9iZXM+W6/hDUWwSCjF1hmRcdWZpzKg8nCdq5kQJijkzpIMT/dUfZikE+2jEqFh7RYLHdakNz+mHURRyBppmC3pCKJjsg5uiBr6SshBMFl0zQFRD7iSHUZBDgQs61wQF7Xe4Q4+U1xOdKiCyR7Jdh9ge1ZZLKyp/HgvGCJRVZo//Rc0BtE9umrsN6BMU9EOdbpx6QSJr20hOE2ClQx06txM/x0YEUbNj9z659+H5b/92/t4XFzf+PP7pp+Nb7z0+++jiwcciy87vfnH+zoOgqk8Wfr4W9nQsAKXEb1wMiWWfxHCA9O0bdyTb8SSAL5LPK9C3b7yfMMYWyoFObBngYbSQ9BKmRJPKTE9KLCVaQ0ovUhFgos5aVjGSCJqWMyRGPMlreWYKMK7EGd9rdvM+xZIDyOz7sJO0cKy8qF6gIlrobkkpqIWAK1bDttDTacL1W5bTA6ARMvhlxoRISuvZCrEsn2+rtVOrtmIRsYgd18QuC0PxATVpCFDD8EpQgAvA0fAtduc0JTbNQuGnRAGTg8ubftVkt/azrzpSEqjuu64ARnZw9d/xhwCmo/uZ+QL89jMBoLcF2E1C6njcbKT5ME5wodul2YzA+bwYBSxRmJqUXRQJPLzNfBMPgZe6MQV/BNf7Ak4dEzgHmZWbDdd13Jk1J+aEYm2A4lBG5NjlkYzMphSw3YwPKySEde7FwPcVZaWQgu/7u82KtOsSqF0jqepCCbEwBVDtOCb8vlqRrmLA2Fsuxra0i/WZQD27jWdA8v3VBSH5lOAsSL6P8dFcTH7+9tfjd28/Ovvn+e8ent+6AbXu6cObsJmnD98G1P3oq7OLP745vvvW+M6bDJP//iPxYfMq/Lr45ecX737AyPd+cfHXt17i8heDywsKA9vKc69fAWoXWE1Sl79jXK4Wi8/H5YHQS1y+KC4XWSn1MOSrzdq07kkdiA3X1EfZ0Xl2a/Mx+n5mjD5T45kYfaomLQDSx7c/XRCkQwot51kerau8UU/B9AmBOUB9vpnsWF2dj9XV1xNtaRqrq6XCS6j+Eqr/X0F19SVU/5+G6hMl5zuB6nJ8Rx9VQ6eBLexl/ppKqN12ji+tC4efVbVJdywzcGa21wyRW2IDye/qsEDJupiq6wJ0Yq/1M3+5pkXso2a23WulkqoXymt9fbnXW+vjcqlklEpl3VB1s7RcMAE8cqPsrRMzMQB8zd7ZZJsEykRaPX6/tqfbBxmtCQdzRfYOCjwVXAfyyh6N0SZxqXeNtcrgk6BcjyjXBXy+phUERr4mxtc1VS0sCxKIyMnp5NS6wxLjiS92OVaLDEjGN1VKWIbSRiAQhkOBMLMeKbS9bXwK+DdhAQp278fQ0sSr3SzWRF5BnY/0Q1sdv5fZnBwq7wKfhdbltDdMwGaX1+ZfkyLWf7EADr4ua6JpU3Jw6GU910K5XMSruJAv9A0jvwyDPDTkXt7U+2UArv2iyap8ZBz6A8EnGSdhXYVQX7ey68kT33PV/gPBp5R9ICsAAA==</t>
+          <t>WykAAB+LCAAAAAAAAAPtWltvG8cV/isLAgFaINTukpIlEqMNeJFUoqQkiLRl5yVY7o7IrZa77M6sJL45L7HTOg1S12nTxkmDppcUsZvAvSSV0x8TmJL85L/QMzN75cXmGvZDABsCvXNuc+bMmXO+vaA3Tga2dIQ9YrnOek5dUnISdgzXtJzees6nB3n1Uu4NDW2cGNje1T19gCkIS6DlkPIJsdZzfUqHZVk+Pj5eOi4uuV5PLiiKKl9tNdtGHw/0vOUQqjsGzkVa5rO1chqqmYMWprqpU11oruca7cZSDVtGHWgt3dF72Fuq+sRyMCEbDrWohQnT9LBOca3euiIWphWWLi2pSJ6ix5JV37JNIZeSFPRADqbFHWuAtYKiruWVUl4pdlS1rKyW1eKSslZ6M1SMBFFTJ7SNvSPL4IQ21QdDrq6UlKKqKqtqEckzhcBWHAAN7djmHj6yCDZr2LZJpojIwQZWDAqrzhZMBckJ3cDQ87uw5enDfseiNs7mxmvSEHtSy3Vo/3UJUmU5Dz8r66oS+hcb1tCm62EDYvpcbm7j4x0vCHVn2ARup295dFTXR5ltXSbY2xmywGVT1VAdVlqxsUcvD2H/sQnpAQyNej5G8hxmrFS3iAHXluNjUzvQbZJUSjHRvusdkqFu4G042zKzcezYrm5CElKLUMuIJ51ioF3PhW1hLldd29wEq4HwDEZkueFAiNm0Vdc9jL2bxUR8V/n+wp4OdBqKT9FRu+8e7zj2qO13ieFZXWzWq6H0TB5ihzTQrvmEugPwIiYhQUtQTFNuteQR/IOjOclEdWxYA93etSGURINDnSagik/dA4vWXNsfOCT0bIKK9mFdHXwSrTMaox3YYoeF3nUaTigvgj2TlVbYc4+jOacZPBQJcoUY4aZPMyaF60ALN3Gaw/eFrXLTsqFzJHckQU3nRruPMZ2ZGIKDWJHcZL1Iq462/UEXDlkXTtoRn5UgOeYjyFbIePBLU6C/5PlfR1HK/A/8iNhowzHny4VMBNMl5tJKwJsgIViTXbV15xCo+xbtb1fCtczgIBGBufLTPATnd2jrI06OopSkoYZj2L6JRVloOAc8RZlvYlPnstEUqQknXUO6M+qMhlCxiVWmcLGegx5eJtQDlJDTDNd3qDdi9QPJgeizdIjfdfgEur2wzoGHf+4DOBlt+o5Rc83FZzNFdC47Fl3cQ9f3RFFcXIVHj9VHn9QxqzS89C+sb2RZE/EyiQ8cPHAdy1g82hBk5r35HAsh4alaWAOL87WwvA3dXTQ/dtYXVvMAWUK7yzRNhRDXsHiyBsfDTOjLc45MHR/ovg2ojkKj7UW1d5KMKuRwUiZJQpc9O6yAGsPMBECzYQ6WDIAQDBguGe6AEWTAqvttJCflGQ4y8IbTa+pOzwekEdWVSXpUf1mX7Hi6Q9hyImAxUYpnC6GwTgnAo4nitePzRBDFywUukifkUAcPhq6n2y0IjLUZpF2AmgCQtHTaD0bQ22xshEGWY9VIK+1Z6PizxHiTEstgBz4okxNELsTWIuB5LBPTEFtlC46lXdNtq+uJqhq28lk82LAYIob1ly0uI1wM9wBu0aD7/hSPGG6PBwGdp6waMkQCs0KqtfeW1wrLpbUVQDZsjPiK63joEotKe7DAslTrWwDaa6AIkZSqsIdlqXLUK0ublgO3dxYQ2yNC8aAsFRWJutJaSWKYGRokD1/Qol6o5aRNtBn2B76EOqwlTUkLAE7pgXl7WjDixApaXbfsUUJORKjpGiA2vve7sy//N775xfmvbjx5+Puzj/4L14++uTf+/P7j2/+++OwWEMffPhjfZdzHNz64+OS9R9/dPn9wCsOicnHjwVpp/PkXIkzCIuroXRtzpzvVtTWluAw5HJEQ2ziZg2/TNyinXbvGMXc0RsHtJB/UNhq1rWaV16qIGKqLdiWzO9WR68fDtlgpn4inixxmmRDROmHtC8YpbqL9aezO8QinpZP8eYoiFuenfz0/vTdXOwhYjOPUUmklr8Bf4ekwD+7Bl5mcWpoF85qp/hIJF5JGJ2TQnmguUZwaplZU4TZ/ZVVRoz5hRgdhltAkK7DU0XvyhJ4g1QT0ilIgOQ6Z/HB0MKERWxyXxEAE8exfv7z4x52UVBDdgJK2As5xiMQmk8MBN72915HaO5f3ahtSZ6PN8iTmJeSE8acIB7NHhy6ZNPxAvi7lViQ3xt65xAlNZdgsqrCexc6kP1ue6w9FsUkoxNQZknHVmaUxo/JwnqiZEyUo5syQDnb0t3+epRCsox6j4uTjlSgLOQNNswU9IRRM9vFNUQNfS1kIJoseM0BWw9lJDqMkhwIXdK4JCtpv84AeKm8lOlVAZLdku67lUKItr66o/H4sGCNQVpk9/j9qDKB9ctM8bECfoKCf6GTjhAYHWdtGcpoAng516NxufB8bEUTNjsP7+O4nZ3/459mHX13c+Pv4F38b3/rw/PTTi/ufiVN2duers/fuB1V9svBzX9jdsQCUEn/iYkjs9EkMB0jfX78tOS6VAL5IPq9A31//KGGMOcqBTmwZ4GHkSNqFKdGkMtOTEq5EPqT0IhUBJmqsZRUjiaBpuUPLiCd5M89MAcaVOONHjU7eJ1hyAZn9GFaSFo6VF9ULVEQL3V1VCmoh4Apv2BK6OkmEfst2uwA0QgZ/mDEhktJ6ukIsy+fbau5UK81YRDix45nYY2koLlAIT1kLaZBwFKZaggJcAJGGb7PnT1Ni06zIcqKYycGDnIOKyR72z37skZJANd/zBEhygjcGbX8IwDp6VjNfgD8JTYDpbQF8k/A6HjfqaT6ME1zofGk2I3A+L0wBSxSpBmEPjQQ23maxiYfASz09hXgEbwUEtDqyYE9kVno2PM/1ZtafmBOKtQCWQ0mR45BHMnxTBYQ3480KCWHNezFQfkVZKaSg/P5uoyztehbUsZFU8aCc2JgAwHZdE36vlKUrGPD2loexI+1ifSZoz27jKfB8/9KC8HxKcBY838f4cC4+P3v32/H7Hzw6/c/ZHx+e3boBde/Jw5uwmCcP3wUE/uib04u/vD2+88749tsMn//pU3GxeQV+Ln7z5cX7HzPy3V9ffP3OK4z+YjA6e3WTV5VnPooF2F1gNUldfskYXS0Wn43RA6FXGH1RjC5OpdTFcF4d1rJ1KrUhNzxTH2VH6tmtzcfr+5nx+kyNp+L1qZq0AGB/fP3rBQH7xCvQacg+ITAHtM83kx23q/Nxu/pWoi1N43Z1tfAKtr+C7T8o2K6+gu0/GNg+UX5eCmyX42f3UWV069jGNNuXLnKs3XKPnlsXNj+raoPs2GYQzGyvH6KwxAaSn/uwRHkZX/uIBKx4HgAu9mFA5s9zwhdae7rTy+ihWB5XZG+GYPbg+5lNyyP0KutSwZWgXIso1wRyvaoVBDy9KsbXNFUtLAsSiMhJ+3LK0fBEU/Eplms3rYGV8YWREp76tBGI5nAowF0jW/6wjrONTwB6JixArez+DLqJeMOaxZpIYyixkT77qoFYvT7N6thqV8cm7ip5o4sL+WVTWcuXMC7mVRV+daPAMot9ExEYh3pi4eOMk8jhhsWfSGr/BwGnKBVbKQAA</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="###0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -563,7 +563,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Description</t>
+          <t>Function Information</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -685,7 +685,7 @@
         </is>
       </c>
       <c r="B21" s="2">
-        <v>2.005077569300117</v>
+        <v>2.005077569300116</v>
       </c>
       <c r="C21" s="2">
         <v>1.106537712984745</v>
@@ -10651,48 +10651,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>2</InitCol>
-          <EndRow>1125</EndRow>
-          <EndCol>2</EndCol>
-          <Name>Deposit Rate: Chile Central Bank: Avg: Financial System: 30 to 89 Days</Name>
-          <DisplayName>Deposit Rate: Chile Central Bank: Avg: Financial System: 30 to 89 Days</DisplayName>
-          <SeriesId>310905701</SeriesId>
-          <Code>SR4824985</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>3</InitCol>
-          <EndRow>1125</EndRow>
-          <EndCol>3</EndCol>
-          <Name>WPI: Primary Articles: Food: FV: Veg: Green Peas</Name>
-          <DisplayName>WPI: Primary Articles: Food: FV: Veg: Green Peas</DisplayName>
-          <SeriesId>310913301</SeriesId>
-          <Code>SR4825052</Code>
-          <Order>1</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CB6792D-44DB-413E-A1C5-17328A1C0617}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>